--- a/va_facility_data_2025-02-20/Quincy VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Quincy%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Quincy VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Quincy%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R23dd3873b7714485a74b8876adfe9c45"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R11e81344cf56492bbeff90131af98637"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2184fcfffbf7465c8eee3720a92798ca"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R64e4a26fb1b34efb9c3a1c71e54f1681"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R6446c2c3809d4818833bc68e5966c6e6"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R2eac8ffea9f441ca851c5bf4ee00acf8"/>
   </x:sheets>
 </x:workbook>
 </file>
